--- a/dataset/data_true.xlsx
+++ b/dataset/data_true.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nanda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nanda\Documents\Erwin\My Working\Code Programming\GitHub\fhas\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7A55E8-B28F-4CF7-B5F4-6D1AED82BA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593BB814-61A0-4169-851D-D57D20BDBB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="10577" tabRatio="668" firstSheet="2" activeTab="7" xr2:uid="{6C15B5C4-D9F3-404C-842A-C8791802B2E5}"/>
   </bookViews>
   <sheets>
-    <sheet name="apbd" sheetId="1" r:id="rId1"/>
-    <sheet name="anggaran_kesehatan" sheetId="2" r:id="rId2"/>
-    <sheet name="cakupan_jkn" sheetId="3" r:id="rId3"/>
-    <sheet name="tempat_tidur_per_1000" sheetId="4" r:id="rId4"/>
-    <sheet name="tenaga_medis" sheetId="5" r:id="rId5"/>
-    <sheet name="ahh" sheetId="6" r:id="rId6"/>
-    <sheet name="pdrb" sheetId="7" r:id="rId7"/>
-    <sheet name="anggaran_pendidikan" sheetId="8" r:id="rId8"/>
+    <sheet name="APBD" sheetId="1" r:id="rId1"/>
+    <sheet name="Anggaran_Kesehatan" sheetId="2" r:id="rId2"/>
+    <sheet name="Cakupan_JKN" sheetId="3" r:id="rId3"/>
+    <sheet name="Tempat_Tidur_per_1000" sheetId="4" r:id="rId4"/>
+    <sheet name="Tenaga_Medis" sheetId="5" r:id="rId5"/>
+    <sheet name="AHH" sheetId="6" r:id="rId6"/>
+    <sheet name="PDRB" sheetId="7" r:id="rId7"/>
+    <sheet name="Anggaran_Pendidikan" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -468,13 +468,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,9 +479,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,6 +524,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,31 +849,32 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="A1:XFD1048576"/>
+      <selection activeCell="B2" sqref="B2:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20.921875" customWidth="1"/>
-    <col min="2" max="3" width="13.84375" customWidth="1"/>
-    <col min="4" max="4" width="12.69140625" customWidth="1"/>
-    <col min="5" max="5" width="13.921875" customWidth="1"/>
+    <col min="2" max="2" width="16.3828125" customWidth="1"/>
+    <col min="3" max="3" width="16.53515625" customWidth="1"/>
+    <col min="4" max="4" width="16.921875" customWidth="1"/>
+    <col min="5" max="5" width="17.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="2">
         <v>2018</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="2">
         <v>2019</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="2">
         <v>2020</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="2">
         <v>2021</v>
       </c>
     </row>
@@ -880,16 +882,16 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="25">
         <v>12306306187481</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="25">
         <v>15787883385490.199</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="25">
         <v>13242212801894.6</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="26">
         <v>16763469972136</v>
       </c>
     </row>
@@ -897,16 +899,16 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="25">
         <v>5998547032282</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="25">
         <v>6518313866322.4102</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="25">
         <v>6358121475263.6104</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="26">
         <v>8537890262352</v>
       </c>
     </row>
@@ -914,16 +916,16 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="25">
         <v>9992819311365</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="25">
         <v>11324588102330.699</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="25">
         <v>9879309897146.9297</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="26">
         <v>15948254311169</v>
       </c>
     </row>
@@ -931,16 +933,16 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="25">
         <v>2979578236902</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="25">
         <v>3118303518797.46</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="25">
         <v>2698458077971.8599</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="26">
         <v>3052194137387</v>
       </c>
     </row>
@@ -948,16 +950,16 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="25">
         <v>5296403530714</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="25">
         <v>5544650430330.0195</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="25">
         <v>5433180699355.6699</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="26">
         <v>6091572432696</v>
       </c>
     </row>
@@ -965,16 +967,16 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="25">
         <v>61410121851157</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="25">
         <v>64938363682013.203</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="25">
         <v>52088133628022</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="26">
         <v>72967009600455</v>
       </c>
     </row>
@@ -982,16 +984,16 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="25">
         <v>1828164979480</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="25">
         <v>1939458991538.72</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="25">
         <v>1804550378713.1699</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="26">
         <v>1912519212778</v>
       </c>
     </row>
@@ -999,16 +1001,16 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="25">
         <v>4198255718275</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="25">
         <v>4824366351412.7402</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="25">
         <v>4430392750898.7695</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="26">
         <v>4516148844341</v>
       </c>
     </row>
@@ -1016,16 +1018,16 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="25">
         <v>33551279224114</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="25">
         <v>35833086126516.5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="25">
         <v>38127531749249</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="26">
         <v>44615065661799</v>
       </c>
     </row>
@@ -1033,16 +1035,16 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="25">
         <v>24478632557339</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="25">
         <v>26151062842457</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="25">
         <v>25651740349991</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="26">
         <v>27190833343000</v>
       </c>
     </row>
@@ -1050,16 +1052,16 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="25">
         <v>30662093021870</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="25">
         <v>33967109632815.199</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="25">
         <v>32286757637609.199</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="26">
         <v>33008197503338.102</v>
       </c>
     </row>
@@ -1067,16 +1069,16 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="25">
         <v>5341404834197</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="25">
         <v>5677397310139.4502</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="25">
         <v>5879356339638.3496</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="26">
         <v>7028214379657</v>
       </c>
     </row>
@@ -1084,16 +1086,16 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="25">
         <v>6082587192592</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="25">
         <v>7005774789958.3301</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="25">
         <v>6630726561521.5596</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="26">
         <v>5526165272537</v>
       </c>
     </row>
@@ -1101,16 +1103,16 @@
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="25">
         <v>4547699750661</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="25">
         <v>5064142623787.9502</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="25">
         <v>5031024797057.5596</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="26">
         <v>4889696415085.5596</v>
       </c>
     </row>
@@ -1118,16 +1120,16 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="25">
         <v>9345057063691</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="25">
         <v>11387618509350.6</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="25">
         <v>9328504462478.2598</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="26">
         <v>11582286794274</v>
       </c>
     </row>
@@ -1135,16 +1137,16 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="25">
         <v>2352884155459</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="25">
         <v>2416478351659.54</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="25">
         <v>2680321696568.6299</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="26">
         <v>2364056627000</v>
       </c>
     </row>
@@ -1152,16 +1154,16 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="25">
         <v>2364345563587</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="25">
         <v>2776076365844.5801</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="25">
         <v>2575170436359.2998</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="26">
         <v>3108627167849</v>
       </c>
     </row>
@@ -1169,16 +1171,16 @@
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="25">
         <v>3419789812825</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="25">
         <v>3653938156214.0698</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="25">
         <v>3855203051882.02</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="26">
         <v>3986942728300</v>
       </c>
     </row>
@@ -1186,16 +1188,16 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="25">
         <v>7538988966120</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="25">
         <v>7058713889024.4102</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="25">
         <v>6967358448182.6299</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="26">
         <v>7480925281643.1396</v>
       </c>
     </row>
@@ -1203,16 +1205,16 @@
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="25">
         <v>3068953726757</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="25">
         <v>2974061950245.4502</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="25">
         <v>3008048650665.1299</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="26">
         <v>4015217740467</v>
       </c>
     </row>
@@ -1220,16 +1222,16 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="25">
         <v>2438771027418</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="25">
         <v>2657499985302.96</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="25">
         <v>2650910817028.8398</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="26">
         <v>3335957359387</v>
       </c>
     </row>
@@ -1237,16 +1239,16 @@
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="25">
         <v>5239531399450</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="25">
         <v>5148158519514.7598</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="25">
         <v>5199504575008</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="26">
         <v>5505470873827</v>
       </c>
     </row>
@@ -1254,16 +1256,16 @@
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="25">
         <v>4846839267378</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="25">
         <v>5277064650987.2998</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="25">
         <v>5755258016193.6396</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="26">
         <v>7584929735729</v>
       </c>
     </row>
@@ -1271,16 +1273,16 @@
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="25">
         <v>13186886938770</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="25">
         <v>13421675432410.6</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="25">
         <v>12606997656660.6</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="26">
         <v>15758964362330</v>
       </c>
     </row>
@@ -1288,16 +1290,16 @@
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="25">
         <v>6947065392851</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="25">
         <v>9269298181082.1406</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="25">
         <v>9746946226430</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="26">
         <v>7744110211743</v>
       </c>
     </row>
@@ -1305,16 +1307,16 @@
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="25">
         <v>8469560058792</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="25">
         <v>8690390951116.7002</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="25">
         <v>8172706474595.3096</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="26">
         <v>9132748802329</v>
       </c>
     </row>
@@ -1322,16 +1324,16 @@
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="25">
         <v>1746622067296</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="25">
         <v>2006026015781.6001</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="25">
         <v>1989564784560.6599</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="26">
         <v>2062542227645</v>
       </c>
     </row>
@@ -1339,16 +1341,16 @@
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="25">
         <v>9322152987945</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="25">
         <v>9491447901635.9297</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="25">
         <v>9986089214540.4902</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="26">
         <v>12046405712940</v>
       </c>
     </row>
@@ -1356,16 +1358,16 @@
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="25">
         <v>3628013037630</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="25">
         <v>4098771219451.1699</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="25">
         <v>4281057917890.8999</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="26">
         <v>4297164739359</v>
       </c>
     </row>
@@ -1373,16 +1375,16 @@
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="25">
         <v>3586474436543</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="25">
         <v>4128549681525.0498</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="25">
         <v>4198430219113</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="26">
         <v>5235191610164</v>
       </c>
     </row>
@@ -1390,16 +1392,16 @@
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="25">
         <v>3656101961038</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="25">
         <v>4156494291530</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="25">
         <v>4501905708338</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="26">
         <v>4087615938923</v>
       </c>
     </row>
@@ -1407,16 +1409,16 @@
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="25">
         <v>6267376231091</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="25">
         <v>6551278880635.3203</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="25">
         <v>6408293788337.9297</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="26">
         <v>6780124354738</v>
       </c>
     </row>
@@ -1424,16 +1426,16 @@
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="25">
         <v>7941143670102</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="25">
         <v>9618074513840.8008</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="25">
         <v>9517763493965.8594</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="26">
         <v>10729096013693</v>
       </c>
     </row>
@@ -1441,16 +1443,16 @@
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="25">
         <v>12568080484448</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="25">
         <v>13440323705747.301</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="25">
         <v>12653607434218.1</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="26">
         <v>13749499451958</v>
       </c>
     </row>
@@ -1466,610 +1468,609 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B2" sqref="B2:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20.53515625" customWidth="1"/>
-    <col min="2" max="2" width="12.3046875" customWidth="1"/>
-    <col min="3" max="3" width="11.921875" customWidth="1"/>
-    <col min="4" max="4" width="12.15234375" customWidth="1"/>
-    <col min="5" max="5" width="12.765625" customWidth="1"/>
+    <col min="2" max="3" width="19.3046875" customWidth="1"/>
+    <col min="4" max="4" width="18.84375" customWidth="1"/>
+    <col min="5" max="5" width="19.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="4">
         <v>2018</v>
       </c>
-      <c r="C1" s="6">
+      <c r="C1" s="4">
         <v>2019</v>
       </c>
-      <c r="D1" s="6">
+      <c r="D1" s="4">
         <v>2020</v>
       </c>
-      <c r="E1" s="6">
+      <c r="E1" s="4">
         <v>2021</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="23">
         <v>1957056434942.8601</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="23">
         <v>2095635528030.1599</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="23">
         <v>1852733367605.3</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="24">
         <v>2488805206310</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="23">
         <v>385322781588.90002</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="23">
         <v>434083761883.23999</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="23">
         <v>548429460284.75</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="24">
         <v>484707754107</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="23">
         <v>370615556698</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="23">
         <v>493499146611.26001</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="23">
         <v>1019800746268</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="24">
         <v>1896829015447</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="23">
         <v>364879538929.97998</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="23">
         <v>239780193506.70999</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="23">
         <v>429527942365.78998</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="24">
         <v>343591584288</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="23">
         <v>170906294820.5</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="23">
         <v>101539770564</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="23">
         <v>227316983589</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="24">
         <v>253270819809</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="23">
         <v>9016872619575</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="23">
         <v>4369138789565</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="23">
         <v>10371903531345</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="24">
         <v>11369858061578</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="23">
         <v>131605693127</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="23">
         <v>117803341008</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="23">
         <v>170707198080</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="24">
         <v>197245839840</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="23">
         <v>472011939987.59003</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="23">
         <v>306355225087.85999</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="23">
         <v>491222440104.32001</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="24">
         <v>519765917871</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="23">
         <v>1036868480086</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="23">
         <v>687309087528</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="23">
         <v>2054108146883</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="24">
         <v>2308242617764</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="23">
         <v>403070912822</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="23">
         <v>1713370326089</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="23">
         <v>2732002497000</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="24">
         <v>2651688797000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="23">
         <v>3633638978057.0698</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="23">
         <v>3074877339974.6401</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="23">
         <v>4943581049656</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="24">
         <v>4507840496278</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="23">
         <v>437538786955</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="23">
         <v>205600092944</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="23">
         <v>520919345417</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="24">
         <v>655882843135</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="23">
         <v>1047966031659</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="23">
         <v>756888248862</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="23">
         <v>1120939706923.04</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="24">
         <v>993608905027</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="23">
         <v>463900753800.53003</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="23">
         <v>217951019565.14999</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="23">
         <v>464179961179.46997</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="24">
         <v>404300153172</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="23">
         <v>1069950853231.4301</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="23">
         <v>1027204143585.75</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="23">
         <v>1330421496664</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="24">
         <v>1265279784138</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="23">
         <v>309722295161.96002</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="23">
         <v>275718681280.96002</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="23">
         <v>265157867742</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="24">
         <v>352794741478</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="23">
         <v>246205330939.79999</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="23">
         <v>159378788459.26001</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="23">
         <v>244415337478.13</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="24">
         <v>382166978663</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="23">
         <v>308061058827.16998</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="23">
         <v>251637167830.16</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="23">
         <v>321833123211.53998</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="24">
         <v>361139263329</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="23">
         <v>596218667015.66003</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="23">
         <v>401929741775.01001</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="23">
         <v>715494364639</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="24">
         <v>773718330312</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="23">
         <v>254343031121.25</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="23">
         <v>143880253664.57999</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="23">
         <v>294773311597.71002</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="24">
         <v>373745985722</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="23">
         <v>202639325149</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="23">
         <v>203520283772.98001</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="23">
         <v>391301062000</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="24">
         <v>1287932034165</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="23">
         <v>556014751178.56995</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="23">
         <v>533097082663.42999</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="23">
         <v>583874226166</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="24">
         <v>671084799663</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="23">
         <v>319038142577.66998</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="23">
         <v>216232595994.76001</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="23">
         <v>533392187726</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="24">
         <v>498791286699</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="23">
         <v>818059281679.15002</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="23">
         <v>749028644794.23999</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="23">
         <v>1308101676859</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="24">
         <v>1365237960716</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="23">
         <v>127010226382</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="23">
         <v>215688382455</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="23">
         <v>165904997970</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="24">
         <v>239818747685</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="23">
         <v>779745209203</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="23">
         <v>717234049438.43005</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="23">
         <v>1141954790278.6101</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="24">
         <v>920323391985</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="23">
         <v>174962900430</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="23">
         <v>111212097218.25999</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="23">
         <v>215463814084.17001</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="24">
         <v>165715054650</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="23">
         <v>917840020378.38</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="23">
         <v>486041430576.47998</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="23">
         <v>955760448711.26001</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="24">
         <v>828716077459</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="23">
         <v>424150984865.87</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="23">
         <v>348848144284.19</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="23">
         <v>497856404971.25</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="24">
         <v>462868292937</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="23">
         <v>311734632427</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="23">
         <v>215953956342.04999</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="23">
         <v>753263784907</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="24">
         <v>368125864939</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="23">
         <v>279205073631</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="23">
         <v>419322875573</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="23">
         <v>788496702535.40002</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="24">
         <v>476253450194</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="23">
         <v>714427957456.28003</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="23">
         <v>505150070142.67999</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="23">
         <v>877271583552</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="24">
         <v>635159257488</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="23">
         <v>479333147854.98999</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="23">
         <v>235456039044.79001</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="23">
         <v>278534538032</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="24">
         <v>488328771485</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="23">
         <v>585556158553</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="23">
         <v>358077271710</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="23">
         <v>703619487660</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="24">
         <v>860012539712</v>
       </c>
     </row>
@@ -2092,597 +2093,597 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="7">
         <v>2018</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="6">
         <v>2019</v>
       </c>
-      <c r="D1" s="10">
+      <c r="D1" s="7">
         <v>2020</v>
       </c>
-      <c r="E1" s="10">
+      <c r="E1" s="7">
         <v>2021</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="10">
         <v>1.0965</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="11">
         <v>1.0082</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>0.997</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <v>1.0209999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="10">
         <v>0.85070000000000001</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="11">
         <v>0.95019999999999993</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>0.91300000000000003</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>0.77039999999999997</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12">
         <v>0.80069999999999997</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>0.73299999999999998</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>0.82599999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>0.77600000000000002</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <v>0.78480000000000005</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>0.78200000000000003</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>0.83799999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <v>0.89590000000000003</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>0.85409999999999997</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>0.84699999999999998</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>0.86599999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="10">
         <v>1.6545000000000001</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <v>1.6432</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="10">
         <v>1.629</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <v>1.736</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="10">
         <v>1.0696000000000001</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>0.9345</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <v>0.82299999999999995</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="10">
         <v>0.96</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <v>0.66879999999999995</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>0.70369999999999999</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <v>0.70799999999999996</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="10">
         <v>0.745</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="10">
         <v>0.7157</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>0.73209999999999997</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>0.747</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="10">
         <v>0.77400000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="10">
         <v>0.78180000000000005</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="11">
         <v>0.82700000000000007</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="10">
         <v>0.82499999999999996</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="10">
         <v>0.84899999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="10">
         <v>0.6865</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="11">
         <v>0.72809999999999997</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="10">
         <v>0.748</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="10">
         <v>0.79600000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="10">
         <v>0.66610000000000003</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>0.74459999999999993</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="10">
         <v>0.754</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="10">
         <v>0.79</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="10">
         <v>0.58360000000000001</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="12">
         <v>0.71379999999999999</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="10">
         <v>0.749</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="10">
         <v>0.80500000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="10">
         <v>0.78690000000000004</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="11">
         <v>0.87280000000000002</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="10">
         <v>0.86199999999999999</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="10">
         <v>0.92400000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="10">
         <v>0.90359999999999996</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="11">
         <v>0.90790000000000004</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="10">
         <v>0.92900000000000005</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="10">
         <v>1.018</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="10">
         <v>0.91049999999999998</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="12">
         <v>0.83540000000000003</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="10">
         <v>0.89</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="10">
         <v>0.93500000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="10">
         <v>0.7409</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="11">
         <v>0.73780000000000001</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="10">
         <v>0.75</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="10">
         <v>0.82399999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="10">
         <v>0.76319999999999999</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="12">
         <v>0.77040000000000008</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="10">
         <v>0.80200000000000005</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="10">
         <v>0.873</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="10">
         <v>0.69789999999999996</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="12">
         <v>0.77689999999999992</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="10">
         <v>0.76900000000000002</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="10">
         <v>0.80700000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="10">
         <v>0.81830000000000003</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="11">
         <v>0.79599999999999993</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="10">
         <v>0.76500000000000001</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="10">
         <v>0.81799999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="10">
         <v>0.70299999999999996</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="12">
         <v>0.72889999999999999</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="10">
         <v>0.67400000000000004</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="10">
         <v>0.78300000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="10">
         <v>0.76229999999999998</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="12">
         <v>0.84089999999999998</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="10">
         <v>0.84499999999999997</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="10">
         <v>0.85799999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="10">
         <v>0.79790000000000005</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="11">
         <v>0.80779999999999996</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="10">
         <v>0.81899999999999995</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="10">
         <v>0.84299999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="10">
         <v>1.1414</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="12">
         <v>1.1186</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="10">
         <v>0.80900000000000005</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="10">
         <v>1.2390000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="10">
         <v>1.3976</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="11">
         <v>1.3352999999999999</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="10">
         <v>1.1559999999999999</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="10">
         <v>1.1910000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="10">
         <v>0.62280000000000002</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="12">
         <v>0.64680000000000004</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="10">
         <v>0.67200000000000004</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="10">
         <v>0.71399999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="10">
         <v>0.88580000000000003</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="12">
         <v>0.93090000000000006</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="10">
         <v>0.92200000000000004</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="10">
         <v>0.95499999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="10">
         <v>0.92879999999999996</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="11">
         <v>0.95279999999999998</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="10">
         <v>0.91800000000000004</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="10">
         <v>0.95</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="10">
         <v>0.81159999999999999</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="12">
         <v>0.873</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="10">
         <v>0.81100000000000005</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="10">
         <v>0.92800000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="10">
         <v>0.85570000000000002</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="12">
         <v>0.87439999999999996</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="10">
         <v>0.82499999999999996</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="10">
         <v>0.873</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="10">
         <v>1.0071000000000001</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="11">
         <v>1.0263</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="10">
         <v>0.95899999999999996</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="10">
         <v>1.0169999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="10">
         <v>0.78720000000000001</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="11">
         <v>0.80559999999999998</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="10">
         <v>0.80400000000000005</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="10">
         <v>0.83899999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="10">
         <v>0.60529999999999995</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="12">
         <v>0.75569999999999993</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="10">
         <v>0.747</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="10">
         <v>0.80700000000000005</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="10">
         <v>0.72689999999999999</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="12">
         <v>0.75450000000000006</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="10">
         <v>0.749</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="10">
         <v>0.78800000000000003</v>
       </c>
     </row>
@@ -2696,7 +2697,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2705,597 +2706,597 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16">
+      <c r="B1" s="13">
         <v>2018</v>
       </c>
-      <c r="C1" s="16">
+      <c r="C1" s="13">
         <v>2019</v>
       </c>
-      <c r="D1" s="16">
+      <c r="D1" s="13">
         <v>2020</v>
       </c>
-      <c r="E1" s="16">
+      <c r="E1" s="13">
         <v>2021</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="14">
         <v>1.6</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="14">
         <v>1.6</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="14">
         <v>1.7</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="14">
         <v>1.94</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="14">
         <v>1.54</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="14">
         <v>1.59</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="14">
         <v>1.9</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="14">
         <v>1.93</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="14">
         <v>0.87</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="14">
         <v>0.87</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="14">
         <v>1.03</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="14">
         <v>1.19</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="14">
         <v>1.3</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="14">
         <v>1.5</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="14">
         <v>1.41</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="14">
         <v>1.82</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="14">
         <v>1.71</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="14">
         <v>1.9</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="14">
         <v>1.8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="14">
         <v>2.33</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="14">
         <v>2.2400000000000002</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="14">
         <v>3.1</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="14">
         <v>2.37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="14">
         <v>1.57</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="14">
         <v>1.66</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="14">
         <v>1.9</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="14">
         <v>1.84</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="14">
         <v>1.1399999999999999</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="14">
         <v>1.1100000000000001</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="14">
         <v>1.3</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="14">
         <v>1.3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="14">
         <v>0.85</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="14">
         <v>0.87</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="14">
         <v>1.04</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="14">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="14">
         <v>1.18</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="14">
         <v>1.4</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="14">
         <v>1.31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="14">
         <v>1.07</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="14">
         <v>1.1100000000000001</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="14">
         <v>1.3</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="14">
         <v>1.27</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="14">
         <v>1.03</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="14">
         <v>1.0900000000000001</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="14">
         <v>1.2</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="14">
         <v>1.27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="14">
         <v>1.1399999999999999</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="14">
         <v>1.21</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="14">
         <v>1.5</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="14">
         <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="14">
         <v>0.91</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="14">
         <v>0.94</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="14">
         <v>1.4</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="14">
         <v>1.47</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="14">
         <v>1.84</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="14">
         <v>1.64</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="14">
         <v>2</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="14">
         <v>1.83</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="14">
         <v>1.41</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="14">
         <v>1.46</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="14">
         <v>1.6</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="14">
         <v>1.9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="14">
         <v>1.31</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="14">
         <v>1.38</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="14">
         <v>1.5</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="14">
         <v>1.63</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="14">
         <v>1.44</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="14">
         <v>1.39</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="14">
         <v>1.7</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="14">
         <v>1.7</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="14">
         <v>0.91</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="14">
         <v>0.9</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="14">
         <v>1</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="14">
         <v>0.93</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="14">
         <v>1.39</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="14">
         <v>1.18</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="14">
         <v>1.7</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="14">
         <v>1.69</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="14">
         <v>1.1299999999999999</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="14">
         <v>1.3</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="14">
         <v>1.42</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="14">
         <v>0.71</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="14">
         <v>0.74</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="14">
         <v>0.9</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="14">
         <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="14">
         <v>0.81</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="14">
         <v>0.83</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="14">
         <v>0.9</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="14">
         <v>1.24</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="14">
         <v>1.2</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="14">
         <v>1.3</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="14">
         <v>1.35</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="14">
         <v>1.38</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="14">
         <v>1.46</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="14">
         <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="14">
         <v>0.98</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="14">
         <v>0.98</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="14">
         <v>1.2</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="14">
         <v>1.19</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="14">
         <v>0.91</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="14">
         <v>0.92</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="14">
         <v>1.07</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="14">
         <v>1.53</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="14">
         <v>1.61</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="14">
         <v>1.2</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="14">
         <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="14">
         <v>1.37</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="14">
         <v>1.44</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="14">
         <v>1.6</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="14">
         <v>1.65</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="14">
         <v>1.08</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="14">
         <v>1.04</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="14">
         <v>1.3</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="14">
         <v>1.35</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="17">
+      <c r="B32" s="14">
         <v>2.1</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="14">
         <v>2.15</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="14">
         <v>2.7</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="14">
         <v>2.7</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="14">
         <v>0.91</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="14">
         <v>1.29</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="14">
         <v>1.5</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="14">
         <v>1.35</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="17">
+      <c r="B34" s="14">
         <v>1.08</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="14">
         <v>1.06</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="14">
         <v>1.2</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="14">
         <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="17">
+      <c r="B35" s="14">
         <v>1.54</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="14">
         <v>1.51</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="14">
         <v>1.7</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="14">
         <v>1.63</v>
       </c>
     </row>
@@ -3314,534 +3315,534 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.07421875" style="20" customWidth="1"/>
-    <col min="2" max="16384" width="9.23046875" style="20"/>
+    <col min="1" max="1" width="20.07421875" style="17" customWidth="1"/>
+    <col min="2" max="16384" width="9.23046875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19">
+      <c r="B1" s="16">
         <v>2018</v>
       </c>
-      <c r="C1" s="19">
+      <c r="C1" s="16">
         <v>2019</v>
       </c>
-      <c r="D1" s="19">
+      <c r="D1" s="16">
         <v>2020</v>
       </c>
-      <c r="E1" s="19">
+      <c r="E1" s="16">
         <v>2021</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18">
         <v>1528</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="18">
         <v>1782</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="18">
         <v>2543</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18">
         <v>2130</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="18">
         <v>2916</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <v>738</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18">
         <v>2336</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="18">
         <v>3452</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="18">
         <v>4747</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18">
         <v>429</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="18">
         <v>513</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="18">
         <v>626</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18">
         <v>2055</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="18">
         <v>2519</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="18">
         <v>3727</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18">
         <v>7890</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="18">
         <v>10799</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="18">
         <v>13473</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18">
         <v>274</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="18">
         <v>386</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="18">
         <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18">
         <v>779</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="18">
         <v>995</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="18">
         <v>1117</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18">
         <v>6190</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="18">
         <v>11541</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="18">
         <v>14944</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18">
         <v>7038</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="18">
         <v>8737</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="18">
         <v>10086</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18">
         <v>8465</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="18">
         <v>10103</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="18">
         <v>15067</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18">
         <v>628</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="18">
         <v>828</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="18">
         <v>1164</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18">
         <v>890</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="18">
         <v>1167</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="18">
         <v>1321</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18">
         <v>503</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="18">
         <v>683</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="18">
         <v>754</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18">
         <v>1013</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="18">
         <v>1489</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="18">
         <v>1832</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18">
         <v>266</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="18">
         <v>284</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="18">
         <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18">
         <v>476</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="18">
         <v>496</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="18">
         <v>550</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18">
         <v>654</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="18">
         <v>889</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="18">
         <v>1038</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18">
         <v>1310</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="18">
         <v>1644</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="18">
         <v>1843</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18">
         <v>237</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="18">
         <v>409</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="18">
         <v>641</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18">
         <v>222</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="18">
         <v>261</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="18">
         <v>390</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18">
         <v>850</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="18">
         <v>1006</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="18">
         <v>1152</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18">
         <v>408</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="18">
         <v>645</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="18">
         <v>1181</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18">
         <v>450</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="18">
         <v>571</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="18">
         <v>953</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18">
         <v>226</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="18">
         <v>317</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="18">
         <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18">
         <v>1367</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="18">
         <v>1899</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="18">
         <v>2568</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18">
         <v>207</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="18">
         <v>238</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="18">
         <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18">
         <v>1996</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="18">
         <v>2702</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="18">
         <v>893</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18">
         <v>518</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="18">
         <v>706</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="18">
         <v>873</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18">
         <v>485</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="18">
         <v>569</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="18">
         <v>722</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18">
         <v>918</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="18">
         <v>1545</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="18">
         <v>1987</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18">
         <v>1547</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="18">
         <v>2032</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="18">
         <v>2502</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18">
         <v>1450</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="18">
         <v>1975</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="18">
         <v>2854</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18">
         <v>3095</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="18">
         <v>4093</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="18">
         <v>6294</v>
       </c>
     </row>
@@ -3858,8 +3859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22C80E4-BCEF-4BAD-9E4C-242B7EAABBF8}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:A37"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E35" sqref="B2:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3868,529 +3869,529 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19">
+      <c r="B1" s="16">
         <v>2018</v>
       </c>
-      <c r="C1" s="19">
+      <c r="C1" s="16">
         <v>2019</v>
       </c>
-      <c r="D1" s="19">
+      <c r="D1" s="16">
         <v>2020</v>
       </c>
-      <c r="E1" s="19">
+      <c r="E1" s="16">
         <v>2021</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="24">
+      <c r="B2" s="14"/>
+      <c r="C2" s="21">
         <v>69915</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="21">
         <v>69975</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="21">
         <v>70005</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="21">
+      <c r="B3" s="14"/>
+      <c r="C3" s="18">
         <v>72</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="21">
         <v>72155</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="21">
         <v>70005</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="24">
+      <c r="B5" s="14"/>
+      <c r="C5" s="21">
         <v>69205</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="24">
+      <c r="B6" s="14"/>
+      <c r="C6" s="21">
         <v>74945</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="21">
         <v>75025</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="24">
+      <c r="B8" s="14"/>
+      <c r="C8" s="21">
         <v>67975</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="21">
         <v>68115</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="18" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="24">
+      <c r="B11" s="14"/>
+      <c r="C11" s="21">
         <v>74245</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="21">
         <v>74405</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="21">
         <v>74515</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="24">
+      <c r="B12" s="14"/>
+      <c r="C12" s="21">
         <v>71225</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="21">
         <v>71345</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="21">
         <v>70735</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="21">
         <v>70805</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="18" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="24">
+      <c r="B15" s="14"/>
+      <c r="C15" s="21">
         <v>69695</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="21">
         <v>69805</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="21">
         <v>74375</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="18" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="24">
+      <c r="B17" s="14"/>
+      <c r="C17" s="21">
         <v>72485</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="21">
         <v>72535</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="21">
         <v>72585</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="24">
+      <c r="B18" s="14"/>
+      <c r="C18" s="21">
         <v>70545</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="24">
+      <c r="B19" s="14"/>
+      <c r="C19" s="21">
         <v>69825</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="21">
         <v>70155</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="21">
         <v>70695</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="21">
         <v>70775</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="21">
         <v>66025</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="18" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="21">
         <v>68375</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="21">
         <v>68495</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="21">
         <v>66735</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="24">
+      <c r="B24" s="14"/>
+      <c r="C24" s="21">
         <v>66895</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="21">
         <v>67055</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="21">
         <v>67195</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="21" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="21">
         <v>65835</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="18" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="24">
+      <c r="B26" s="14"/>
+      <c r="C26" s="21">
         <v>65895</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="18" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="24">
+      <c r="B27" s="14"/>
+      <c r="C27" s="21">
         <v>71525</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="18" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="21" t="s">
+      <c r="B30" s="14"/>
+      <c r="C30" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="21">
         <v>68745</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="18" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="21" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="18" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="21" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="21">
         <v>71745</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="21">
         <v>71805</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="24">
+      <c r="B33" s="14"/>
+      <c r="C33" s="21">
         <v>69355</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="21">
         <v>69635</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="24">
+      <c r="B34" s="14"/>
+      <c r="C34" s="21">
         <v>69705</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="24">
+      <c r="B35" s="14"/>
+      <c r="C35" s="21">
         <v>68995</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="18" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4412,7 +4413,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.15234375" style="20" customWidth="1"/>
+    <col min="1" max="1" width="21.15234375" style="17" customWidth="1"/>
     <col min="2" max="2" width="21.3828125" customWidth="1"/>
     <col min="3" max="3" width="21.3046875" customWidth="1"/>
     <col min="4" max="4" width="21.23046875" customWidth="1"/>
@@ -4421,702 +4422,702 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18">
+      <c r="B1" s="15">
         <v>2017</v>
       </c>
-      <c r="C1" s="18">
+      <c r="C1" s="15">
         <v>2018</v>
       </c>
-      <c r="D1" s="18">
+      <c r="D1" s="15">
         <v>2019</v>
       </c>
-      <c r="E1" s="18">
+      <c r="E1" s="15">
         <v>2020</v>
       </c>
-      <c r="F1" s="18">
+      <c r="F1" s="15">
         <v>2021</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="22">
         <v>155910977000000</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="22">
         <v>164162978200000</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="22">
         <v>166372320700000</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="22">
         <v>184976301600000</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="22">
         <v>4.87826762E+18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="22">
         <v>741347427600000</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="22">
         <v>799608954200000</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="22">
         <v>811188308800000</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="22">
         <v>859870945400000</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="22">
         <v>2.6190895070000001E+19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="22">
         <v>230367222000000</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="22">
         <v>245949737200000</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="22">
         <v>241993529100000</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="22">
         <v>252749645400000</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="22">
         <v>9.652282950000001E+18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="22">
         <v>752263066300000</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="22">
         <v>760247508900000</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="22">
         <v>728649985300000</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="22">
         <v>843211153000000</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="22">
         <v>1.37943228E+19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="22">
         <v>207878694300000</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="22">
         <v>216927708200000</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <v>206242611000000</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="22">
         <v>233725458600000</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="22">
         <v>9.95507958E+18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="22">
         <v>419392156700000</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="22">
         <v>453402714100000</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="22">
         <v>456647864400000</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="22">
         <v>491566450400000</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="22">
         <v>1.8469274070000001E+19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="22">
         <v>66402993050000</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="22">
         <v>72098240450000</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="22">
         <v>73305267040000</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="22">
         <v>79576326260000</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="22">
         <v>2.98225841E+18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="22">
         <v>332446070700000</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="22">
         <v>356676828400000</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="22">
         <v>353530038800000</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="22">
         <v>371903171900000</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="22">
         <v>1.307624346E+19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="22">
         <v>73113281660000</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="22">
         <v>75794959500000</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="22">
         <v>75495257200000</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="22">
         <v>85942704030000</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="22">
         <v>2.05642572E+18</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="22">
         <v>248822233100000</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="22">
         <v>267631477900000</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="22">
         <v>254227859800000</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="22">
         <v>275636327700000</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="22">
         <v>9.227391310000001E+18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="22">
         <v>2592606572000000</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="22">
         <v>2815636157000000</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="22">
         <v>2768189733000000</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="22">
         <v>2914581083000000</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="22">
         <v>6.7860694379999994E+19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="22">
         <v>1960627652000000</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="22">
         <v>2123153711000000</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="22">
         <v>2084620246000000</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="22">
         <v>2209822384000000</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="22">
         <v>6.4857816099999998E+19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="22">
         <v>1268261166000000</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="22">
         <v>1360960131000000</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="22">
         <v>1347922689000000</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="22">
         <v>1420799908000000</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="22">
         <v>5.6462907049999999E+19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="22">
         <v>129818357900000</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="22">
         <v>141047688000000</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="22">
         <v>138306833300000.02</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="22">
         <v>149369169100000</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="22">
         <v>8.91936631E+18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="22">
         <v>2188766345000000</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="22">
         <v>2345548552000000</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="22">
         <v>2299791052000000</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="22">
         <v>2454498796000000</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="22">
         <v>8.8895105869999997E+19</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="22">
         <v>613804414400000</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="22">
         <v>661321340800000</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="22">
         <v>625979345100000</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="22">
         <v>665921915500000</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="22">
         <v>2.2816364089999999E+19</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="22">
         <v>233636772700000</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="22">
         <v>251934097800000</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="22">
         <v>223900894600000</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="22">
         <v>219800030500000</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="22">
         <v>7.3588578E+18</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="22">
         <v>123868015400000</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="22">
         <v>132500099800000</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="22">
         <v>133613744200000</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="22">
         <v>140153319100000</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="22">
         <v>7.15486138E+18</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="22">
         <v>98930187650000</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="22">
         <v>106731763300000</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="22">
         <v>106480968000000</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="22">
         <v>110885751000000</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="22">
         <v>4.83456507E+18</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="22">
         <v>194138220800000</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="22">
         <v>212150332200000</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="22">
         <v>214001753700000</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="22">
         <v>231321163300000</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="22">
         <v>4.51572532E+18</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="22">
         <v>138616134699999.98</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="22">
         <v>150046095600000</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="22">
         <v>152187394300000</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="22">
         <v>170001210900000</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="22">
         <v>2.60448084E+18</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="22">
         <v>171684055900000</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="22">
         <v>180557639200000</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="22">
         <v>179094106600000</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="22">
         <v>192576581200000</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="22">
         <v>4.55702656E+18</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="22">
         <v>635498679800000</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="22">
         <v>652480257400000</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="22">
         <v>607586183100000</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="22">
         <v>695158330300000</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="22">
         <v>8.33090052E+18</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="22">
         <v>85548942680000</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="22">
         <v>96509929570000</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="22">
         <v>100509859600000</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="22">
         <v>110668941600000</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="22">
         <v>8.2000132E+17</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="22">
         <v>119512684000000</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="22">
         <v>130126510000000</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="22">
         <v>132230056900000</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="22">
         <v>142600019600000</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="22">
         <v>3.82056688E+18</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="22">
         <v>167135768800000</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="22">
         <v>185740087200000</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="22">
         <v>197440782700000</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="22">
         <v>246987356700000</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="22">
         <v>5.39811733E+18</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="22">
         <v>461774735800000</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="22">
         <v>504320725100000</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="22">
         <v>504059368400000</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="22">
         <v>545230029100000</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="22">
         <v>2.2828847849999999E+19</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="22">
         <v>118066606700000</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="22">
         <v>129225147500000</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="22">
         <v>130178026100000</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="22">
         <v>139057828199999.98</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="22">
         <v>4.48051651E+18</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="22">
         <v>37731386370000</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="22">
         <v>41145449910000</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="22">
         <v>41729772040000</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="22">
         <v>43896365580000</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="22">
         <v>1.70567309E+18</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="22">
         <v>43457831660000</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="22">
         <v>46365789570000</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="22">
         <v>46427581980000</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="22">
         <v>50341228800000</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="22">
         <v>1.20229283E+18</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="22">
         <v>43047090660000</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="22">
         <v>46152817520000</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="22">
         <v>46262452530000</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="22">
         <v>48564217180000</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="22">
         <v>2.86004811E+18</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="22">
         <v>36468794700000</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="22">
         <v>39695490690000</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="22">
         <v>42319470430000</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="22">
         <v>52359851790000</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="22">
         <v>1.35296458E+18</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="22">
         <v>79644584970000</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="22">
         <v>84356967990000</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="22">
         <v>83588641760000</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="22">
         <v>85072858480000</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="22">
         <v>1.12884324E+18</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="22">
         <v>210600573200000</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="22">
         <v>189510696100000</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="22">
         <v>199232884400000</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="22">
         <v>235343249900000</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="22">
         <v>3.37921367E+18</v>
       </c>
     </row>
@@ -5144,702 +5145,702 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18">
+      <c r="B1" s="15">
         <v>2017</v>
       </c>
-      <c r="C1" s="18">
+      <c r="C1" s="15">
         <v>2018</v>
       </c>
-      <c r="D1" s="18">
+      <c r="D1" s="15">
         <v>2019</v>
       </c>
-      <c r="E1" s="18">
+      <c r="E1" s="15">
         <v>2020</v>
       </c>
-      <c r="F1" s="18">
+      <c r="F1" s="15">
         <v>2021</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="22">
         <v>4878267620000</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="22">
         <v>5148188390000</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="22">
         <v>5393983140000</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="22">
         <v>5705376600000</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="22">
         <v>6246082490000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="22">
         <v>26190895070000</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="22">
         <v>28611300440000</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="22">
         <v>31055571700000</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="22">
         <v>31722155700000</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="22">
         <v>32326513560000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="22">
         <v>9652282950000</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="22">
         <v>10343941880000</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="22">
         <v>11224945440000</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="22">
         <v>11954727400000</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="22">
         <v>12685315150000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="22">
         <v>13794322800000</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="22">
         <v>14502440230000</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="22">
         <v>15542767970000</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="22">
         <v>17220666040000</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="22">
         <v>18427086620000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="22">
         <v>9955079580000</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="22">
         <v>10850447130000</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <v>12178570250000</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="22">
         <v>12757096870000</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="22">
         <v>13344116480000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="22">
         <v>18469274070000</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="22">
         <v>19617828090000</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="22">
         <v>20833952610000</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="22">
         <v>21712107570000</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="22">
         <v>22763560290000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="22">
         <v>2982258410000</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="22">
         <v>3211972370000</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="22">
         <v>3444414860000</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="22">
         <v>3665386270000</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="22">
         <v>4020482040000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="22">
         <v>13076243460000</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="22">
         <v>14105299350000</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="22">
         <v>15244659750000</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="22">
         <v>16224834180000</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="22">
         <v>16898904790000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="22">
         <v>2056425720000</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="22">
         <v>2233794160000</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="22">
         <v>2382896350000</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="22">
         <v>2453365460000</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="22">
         <v>2545480740000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="22">
         <v>9227391310000</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="22">
         <v>9966028960000</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="22">
         <v>10726082040000</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="22">
         <v>10916298710000</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="22">
         <v>11347303010000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="22">
         <v>67860694379999.992</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="22">
         <v>72633743080000</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="22">
         <v>77658829150000</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="22">
         <v>86763125590000</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="22">
         <v>89597233010000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="22">
         <v>64857816100000</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="22">
         <v>70117779010000.008</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="22">
         <v>77629726710000</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="22">
         <v>81479894360000</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="22">
         <v>85359925310000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="22">
         <v>56462907050000</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="22">
         <v>61904921440000</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="22">
         <v>66902113620000</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="22">
         <v>67872762410000</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="22">
         <v>70125378849999.992</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="22">
         <v>8919366310000</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="22">
         <v>9455465250000</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="22">
         <v>10222484090000</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="22">
         <v>10657780830000</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="22">
         <v>11538530880000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="22">
         <v>88895105870000</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="22">
         <v>96193852810000</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="22">
         <v>102575288700000</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="22">
         <v>110725095200000</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="22">
         <v>113377414700000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="22">
         <v>22816364090000</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="22">
         <v>24750837560000</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="22">
         <v>26364887900000</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="22">
         <v>26812702520000</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="22">
         <v>27514859950000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="22">
         <v>7358857800000</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="22">
         <v>7864049190000</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="22">
         <v>8571444830000</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="22">
         <v>9358858090000</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="22">
         <v>9651050890000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="22">
         <v>7154861380000</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="22">
         <v>7656801050000</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="22">
         <v>8234065430000</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="22">
         <v>8398867590000</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="22">
         <v>8872847280000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="22">
         <v>4834565070000</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="22">
         <v>5158447200000</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="22">
         <v>5596783130000</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="22">
         <v>6041480200000</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="22">
         <v>6092514070000</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="22">
         <v>4515725320000</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="22">
         <v>4837254280000</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="22">
         <v>5340554850000</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="22">
         <v>5367827450000</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="22">
         <v>5740658950000</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="22">
         <v>2604480840000</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="22">
         <v>2828341960000</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="22">
         <v>3154662710000</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="22">
         <v>3424540040000</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="22">
         <v>3797268490000</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="22">
         <v>4557026560000</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="22">
         <v>4822691080000</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="22">
         <v>5168156860000</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="22">
         <v>5563973160000</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="22">
         <v>5949584730000</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="22">
         <v>8330900520000</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="22">
         <v>8618577810000.001</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="22">
         <v>9185286420000</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="22">
         <v>9710471390000</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="22">
         <v>10410440490000</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="22">
         <v>820001320000</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="22">
         <v>856208340000</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="22">
         <v>928880390000</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="22">
         <v>990011320000</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="22">
         <v>1052524480000</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="22">
         <v>3820566880000</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="22">
         <v>4093028940000</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="22">
         <v>4646369950000</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="22">
         <v>4886283310000</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="22">
         <v>5437100330000</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="22">
         <v>5398117330000</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="22">
         <v>6041120360000</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="22">
         <v>6696541270000</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="22">
         <v>6782821690000</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="22">
         <v>7159336750000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="22">
         <v>22828847850000</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="22">
         <v>26446640470000</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="22">
         <v>28775905000000</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="22">
         <v>33424479830000</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="22">
         <v>35436181830000</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="22">
         <v>4480516510000</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="22">
         <v>4774189600000</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="22">
         <v>5181178150000</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="22">
         <v>5470032270000</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="22">
         <v>5760812520000</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="22">
         <v>1705673090000</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="22">
         <v>1923480940000</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="22">
         <v>2166293430000.0002</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="22">
         <v>2238517420000</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="22">
         <v>2357576300000</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="22">
         <v>1202292830000</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="22">
         <v>1383071490000</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="22">
         <v>1501495650000</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="22">
         <v>1552543090000</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="22">
         <v>1616154590000</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="22">
         <v>2860048110000</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="22">
         <v>2981637870000</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="22">
         <v>3287665670000</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="22">
         <v>3617232370000</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="22">
         <v>3598499470000</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="22">
         <v>1352964580000</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="22">
         <v>1448316990000</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="22">
         <v>1574874760000</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="22">
         <v>1624366690000</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="22">
         <v>1744270020000</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="22">
         <v>1128843240000</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="22">
         <v>1249207780000</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="22">
         <v>1298065710000</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="22">
         <v>1497754240000</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="22">
         <v>1709913700000</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="22">
         <v>3379213670000</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="22">
         <v>3639820860000</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="22">
         <v>3963908180000</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="22">
         <v>4283597389999.9995</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="22">
         <v>5160321840000</v>
       </c>
     </row>

--- a/dataset/data_true.xlsx
+++ b/dataset/data_true.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nanda\Documents\Erwin\My Working\Code Programming\GitHub\fhas\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593BB814-61A0-4169-851D-D57D20BDBB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D962F28D-7C1B-445E-BD67-D59DF3876D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="10577" tabRatio="668" firstSheet="2" activeTab="7" xr2:uid="{6C15B5C4-D9F3-404C-842A-C8791802B2E5}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="10577" tabRatio="668" firstSheet="2" activeTab="5" xr2:uid="{6C15B5C4-D9F3-404C-842A-C8791802B2E5}"/>
   </bookViews>
   <sheets>
     <sheet name="APBD" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="39">
   <si>
     <t>Provinsi</t>
   </si>
@@ -176,171 +176,6 @@
     <t>Kepulauan Riau</t>
   </si>
   <si>
-    <t>69,15</t>
-  </si>
-  <si>
-    <t>69,28</t>
-  </si>
-  <si>
-    <t>69,52</t>
-  </si>
-  <si>
-    <t>71,65</t>
-  </si>
-  <si>
-    <t>71,72</t>
-  </si>
-  <si>
-    <t>71,04</t>
-  </si>
-  <si>
-    <t>71,17</t>
-  </si>
-  <si>
-    <t>71,26</t>
-  </si>
-  <si>
-    <t>69,93</t>
-  </si>
-  <si>
-    <t>70,03</t>
-  </si>
-  <si>
-    <t>69,37</t>
-  </si>
-  <si>
-    <t>69,47</t>
-  </si>
-  <si>
-    <t>70,56</t>
-  </si>
-  <si>
-    <t>70,68</t>
-  </si>
-  <si>
-    <t>70,78</t>
-  </si>
-  <si>
-    <t>69,99</t>
-  </si>
-  <si>
-    <t>72,82</t>
-  </si>
-  <si>
-    <t>72,95</t>
-  </si>
-  <si>
-    <t>73,06</t>
-  </si>
-  <si>
-    <t>72,92</t>
-  </si>
-  <si>
-    <t>73,15</t>
-  </si>
-  <si>
-    <t>73,38</t>
-  </si>
-  <si>
-    <t>75,08</t>
-  </si>
-  <si>
-    <t>71,43</t>
-  </si>
-  <si>
-    <t>69,89</t>
-  </si>
-  <si>
-    <t>70,07</t>
-  </si>
-  <si>
-    <t>72,28</t>
-  </si>
-  <si>
-    <t>66,24</t>
-  </si>
-  <si>
-    <t>66,51</t>
-  </si>
-  <si>
-    <t>70,61</t>
-  </si>
-  <si>
-    <t>69,75</t>
-  </si>
-  <si>
-    <t>68,5</t>
-  </si>
-  <si>
-    <t>68,69</t>
-  </si>
-  <si>
-    <t>68,88</t>
-  </si>
-  <si>
-    <t>74,27</t>
-  </si>
-  <si>
-    <t>74,65</t>
-  </si>
-  <si>
-    <t>71,63</t>
-  </si>
-  <si>
-    <t>68,29</t>
-  </si>
-  <si>
-    <t>70,48</t>
-  </si>
-  <si>
-    <t>70,62</t>
-  </si>
-  <si>
-    <t>70,71</t>
-  </si>
-  <si>
-    <t>71,16</t>
-  </si>
-  <si>
-    <t>71,34</t>
-  </si>
-  <si>
-    <t>71,36</t>
-  </si>
-  <si>
-    <t>68,24</t>
-  </si>
-  <si>
-    <t>64,87</t>
-  </si>
-  <si>
-    <t>65,11</t>
-  </si>
-  <si>
-    <t>65,29</t>
-  </si>
-  <si>
-    <t>65,87</t>
-  </si>
-  <si>
-    <t>66,14</t>
-  </si>
-  <si>
-    <t>68,21</t>
-  </si>
-  <si>
-    <t>66,05</t>
-  </si>
-  <si>
-    <t>66,19</t>
-  </si>
-  <si>
-    <t>65,69</t>
-  </si>
-  <si>
-    <t>65,97</t>
-  </si>
-  <si>
     <t>Sumatra Utara</t>
   </si>
   <si>
@@ -354,6 +189,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -468,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -520,9 +358,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -530,6 +365,10 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -882,16 +721,16 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="24">
         <v>12306306187481</v>
       </c>
-      <c r="C2" s="25">
+      <c r="C2" s="24">
         <v>15787883385490.199</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="24">
         <v>13242212801894.6</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="25">
         <v>16763469972136</v>
       </c>
     </row>
@@ -899,16 +738,16 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="24">
         <v>5998547032282</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <v>6518313866322.4102</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="24">
         <v>6358121475263.6104</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="25">
         <v>8537890262352</v>
       </c>
     </row>
@@ -916,16 +755,16 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="24">
         <v>9992819311365</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>11324588102330.699</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>9879309897146.9297</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="25">
         <v>15948254311169</v>
       </c>
     </row>
@@ -933,16 +772,16 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="24">
         <v>2979578236902</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="24">
         <v>3118303518797.46</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="24">
         <v>2698458077971.8599</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="25">
         <v>3052194137387</v>
       </c>
     </row>
@@ -950,16 +789,16 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="24">
         <v>5296403530714</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>5544650430330.0195</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="24">
         <v>5433180699355.6699</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="25">
         <v>6091572432696</v>
       </c>
     </row>
@@ -967,16 +806,16 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="24">
         <v>61410121851157</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>64938363682013.203</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="24">
         <v>52088133628022</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
         <v>72967009600455</v>
       </c>
     </row>
@@ -984,16 +823,16 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="24">
         <v>1828164979480</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>1939458991538.72</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <v>1804550378713.1699</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <v>1912519212778</v>
       </c>
     </row>
@@ -1001,16 +840,16 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="24">
         <v>4198255718275</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>4824366351412.7402</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="24">
         <v>4430392750898.7695</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="25">
         <v>4516148844341</v>
       </c>
     </row>
@@ -1018,16 +857,16 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="24">
         <v>33551279224114</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <v>35833086126516.5</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="24">
         <v>38127531749249</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="25">
         <v>44615065661799</v>
       </c>
     </row>
@@ -1035,16 +874,16 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="24">
         <v>24478632557339</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>26151062842457</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="24">
         <v>25651740349991</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <v>27190833343000</v>
       </c>
     </row>
@@ -1052,16 +891,16 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="24">
         <v>30662093021870</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="24">
         <v>33967109632815.199</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="24">
         <v>32286757637609.199</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="25">
         <v>33008197503338.102</v>
       </c>
     </row>
@@ -1069,16 +908,16 @@
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="24">
         <v>5341404834197</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>5677397310139.4502</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="24">
         <v>5879356339638.3496</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="25">
         <v>7028214379657</v>
       </c>
     </row>
@@ -1086,16 +925,16 @@
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <v>6082587192592</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>7005774789958.3301</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="24">
         <v>6630726561521.5596</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="25">
         <v>5526165272537</v>
       </c>
     </row>
@@ -1103,16 +942,16 @@
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="24">
         <v>4547699750661</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <v>5064142623787.9502</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="24">
         <v>5031024797057.5596</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="25">
         <v>4889696415085.5596</v>
       </c>
     </row>
@@ -1120,16 +959,16 @@
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="24">
         <v>9345057063691</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="24">
         <v>11387618509350.6</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="24">
         <v>9328504462478.2598</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="25">
         <v>11582286794274</v>
       </c>
     </row>
@@ -1137,16 +976,16 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="24">
         <v>2352884155459</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="24">
         <v>2416478351659.54</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="24">
         <v>2680321696568.6299</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="25">
         <v>2364056627000</v>
       </c>
     </row>
@@ -1154,16 +993,16 @@
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="24">
         <v>2364345563587</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="24">
         <v>2776076365844.5801</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="24">
         <v>2575170436359.2998</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="25">
         <v>3108627167849</v>
       </c>
     </row>
@@ -1171,16 +1010,16 @@
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="24">
         <v>3419789812825</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <v>3653938156214.0698</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="24">
         <v>3855203051882.02</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="25">
         <v>3986942728300</v>
       </c>
     </row>
@@ -1188,16 +1027,16 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="24">
         <v>7538988966120</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="24">
         <v>7058713889024.4102</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D20" s="24">
         <v>6967358448182.6299</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="25">
         <v>7480925281643.1396</v>
       </c>
     </row>
@@ -1205,16 +1044,16 @@
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="24">
         <v>3068953726757</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="24">
         <v>2974061950245.4502</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="24">
         <v>3008048650665.1299</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="25">
         <v>4015217740467</v>
       </c>
     </row>
@@ -1222,16 +1061,16 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="24">
         <v>2438771027418</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="24">
         <v>2657499985302.96</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="24">
         <v>2650910817028.8398</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="25">
         <v>3335957359387</v>
       </c>
     </row>
@@ -1239,16 +1078,16 @@
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="24">
         <v>5239531399450</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="24">
         <v>5148158519514.7598</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="24">
         <v>5199504575008</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="25">
         <v>5505470873827</v>
       </c>
     </row>
@@ -1256,16 +1095,16 @@
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="24">
         <v>4846839267378</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="24">
         <v>5277064650987.2998</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="24">
         <v>5755258016193.6396</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="25">
         <v>7584929735729</v>
       </c>
     </row>
@@ -1273,16 +1112,16 @@
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="24">
         <v>13186886938770</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="24">
         <v>13421675432410.6</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="24">
         <v>12606997656660.6</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="25">
         <v>15758964362330</v>
       </c>
     </row>
@@ -1290,16 +1129,16 @@
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="24">
         <v>6947065392851</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="24">
         <v>9269298181082.1406</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="24">
         <v>9746946226430</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="25">
         <v>7744110211743</v>
       </c>
     </row>
@@ -1307,16 +1146,16 @@
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="24">
         <v>8469560058792</v>
       </c>
-      <c r="C27" s="25">
+      <c r="C27" s="24">
         <v>8690390951116.7002</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="24">
         <v>8172706474595.3096</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="25">
         <v>9132748802329</v>
       </c>
     </row>
@@ -1324,16 +1163,16 @@
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="24">
         <v>1746622067296</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="24">
         <v>2006026015781.6001</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="24">
         <v>1989564784560.6599</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="25">
         <v>2062542227645</v>
       </c>
     </row>
@@ -1341,16 +1180,16 @@
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="24">
         <v>9322152987945</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="24">
         <v>9491447901635.9297</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="24">
         <v>9986089214540.4902</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="25">
         <v>12046405712940</v>
       </c>
     </row>
@@ -1358,16 +1197,16 @@
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="24">
         <v>3628013037630</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30" s="24">
         <v>4098771219451.1699</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="24">
         <v>4281057917890.8999</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="25">
         <v>4297164739359</v>
       </c>
     </row>
@@ -1375,16 +1214,16 @@
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="24">
         <v>3586474436543</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="24">
         <v>4128549681525.0498</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="24">
         <v>4198430219113</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="25">
         <v>5235191610164</v>
       </c>
     </row>
@@ -1392,16 +1231,16 @@
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="24">
         <v>3656101961038</v>
       </c>
-      <c r="C32" s="25">
+      <c r="C32" s="24">
         <v>4156494291530</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="24">
         <v>4501905708338</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="25">
         <v>4087615938923</v>
       </c>
     </row>
@@ -1409,16 +1248,16 @@
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="24">
         <v>6267376231091</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="24">
         <v>6551278880635.3203</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="24">
         <v>6408293788337.9297</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="25">
         <v>6780124354738</v>
       </c>
     </row>
@@ -1426,16 +1265,16 @@
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="24">
         <v>7941143670102</v>
       </c>
-      <c r="C34" s="25">
+      <c r="C34" s="24">
         <v>9618074513840.8008</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="24">
         <v>9517763493965.8594</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="25">
         <v>10729096013693</v>
       </c>
     </row>
@@ -1443,16 +1282,16 @@
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="24">
         <v>12568080484448</v>
       </c>
-      <c r="C35" s="25">
+      <c r="C35" s="24">
         <v>13440323705747.301</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="24">
         <v>12653607434218.1</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="25">
         <v>13749499451958</v>
       </c>
     </row>
@@ -1500,16 +1339,16 @@
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>1957056434942.8601</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="22">
         <v>2095635528030.1599</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="22">
         <v>1852733367605.3</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="23">
         <v>2488805206310</v>
       </c>
     </row>
@@ -1517,16 +1356,16 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="22">
         <v>385322781588.90002</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="22">
         <v>434083761883.23999</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <v>548429460284.75</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="23">
         <v>484707754107</v>
       </c>
     </row>
@@ -1534,16 +1373,16 @@
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <v>370615556698</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>493499146611.26001</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="22">
         <v>1019800746268</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>1896829015447</v>
       </c>
     </row>
@@ -1551,16 +1390,16 @@
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>364879538929.97998</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="22">
         <v>239780193506.70999</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <v>429527942365.78998</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>343591584288</v>
       </c>
     </row>
@@ -1568,16 +1407,16 @@
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>170906294820.5</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <v>101539770564</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <v>227316983589</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>253270819809</v>
       </c>
     </row>
@@ -1585,16 +1424,16 @@
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>9016872619575</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <v>4369138789565</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <v>10371903531345</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>11369858061578</v>
       </c>
     </row>
@@ -1602,16 +1441,16 @@
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="22">
         <v>131605693127</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <v>117803341008</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <v>170707198080</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>197245839840</v>
       </c>
     </row>
@@ -1619,16 +1458,16 @@
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="22">
         <v>472011939987.59003</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <v>306355225087.85999</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>491222440104.32001</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>519765917871</v>
       </c>
     </row>
@@ -1636,16 +1475,16 @@
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="22">
         <v>1036868480086</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <v>687309087528</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>2054108146883</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>2308242617764</v>
       </c>
     </row>
@@ -1653,16 +1492,16 @@
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="22">
         <v>403070912822</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <v>1713370326089</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <v>2732002497000</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>2651688797000</v>
       </c>
     </row>
@@ -1670,16 +1509,16 @@
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="22">
         <v>3633638978057.0698</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>3074877339974.6401</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>4943581049656</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>4507840496278</v>
       </c>
     </row>
@@ -1687,16 +1526,16 @@
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="22">
         <v>437538786955</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>205600092944</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <v>520919345417</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>655882843135</v>
       </c>
     </row>
@@ -1704,16 +1543,16 @@
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>1047966031659</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>756888248862</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <v>1120939706923.04</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="23">
         <v>993608905027</v>
       </c>
     </row>
@@ -1721,16 +1560,16 @@
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>463900753800.53003</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <v>217951019565.14999</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="22">
         <v>464179961179.46997</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="23">
         <v>404300153172</v>
       </c>
     </row>
@@ -1738,16 +1577,16 @@
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <v>1069950853231.4301</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>1027204143585.75</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="22">
         <v>1330421496664</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <v>1265279784138</v>
       </c>
     </row>
@@ -1755,16 +1594,16 @@
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>309722295161.96002</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <v>275718681280.96002</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <v>265157867742</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="23">
         <v>352794741478</v>
       </c>
     </row>
@@ -1772,16 +1611,16 @@
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>246205330939.79999</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="22">
         <v>159378788459.26001</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <v>244415337478.13</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="23">
         <v>382166978663</v>
       </c>
     </row>
@@ -1789,16 +1628,16 @@
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <v>308061058827.16998</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="22">
         <v>251637167830.16</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="22">
         <v>321833123211.53998</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="23">
         <v>361139263329</v>
       </c>
     </row>
@@ -1806,16 +1645,16 @@
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="22">
         <v>596218667015.66003</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="22">
         <v>401929741775.01001</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="22">
         <v>715494364639</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="23">
         <v>773718330312</v>
       </c>
     </row>
@@ -1823,16 +1662,16 @@
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="22">
         <v>254343031121.25</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="22">
         <v>143880253664.57999</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="22">
         <v>294773311597.71002</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <v>373745985722</v>
       </c>
     </row>
@@ -1840,16 +1679,16 @@
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="22">
         <v>202639325149</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="22">
         <v>203520283772.98001</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="22">
         <v>391301062000</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="23">
         <v>1287932034165</v>
       </c>
     </row>
@@ -1857,16 +1696,16 @@
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="22">
         <v>556014751178.56995</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <v>533097082663.42999</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="22">
         <v>583874226166</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="23">
         <v>671084799663</v>
       </c>
     </row>
@@ -1874,16 +1713,16 @@
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B24" s="22">
         <v>319038142577.66998</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="22">
         <v>216232595994.76001</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="22">
         <v>533392187726</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="23">
         <v>498791286699</v>
       </c>
     </row>
@@ -1891,16 +1730,16 @@
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="22">
         <v>818059281679.15002</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="22">
         <v>749028644794.23999</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="22">
         <v>1308101676859</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="23">
         <v>1365237960716</v>
       </c>
     </row>
@@ -1908,16 +1747,16 @@
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="22">
         <v>127010226382</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="22">
         <v>215688382455</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="22">
         <v>165904997970</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="23">
         <v>239818747685</v>
       </c>
     </row>
@@ -1925,16 +1764,16 @@
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="22">
         <v>779745209203</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="22">
         <v>717234049438.43005</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="22">
         <v>1141954790278.6101</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="23">
         <v>920323391985</v>
       </c>
     </row>
@@ -1942,16 +1781,16 @@
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="22">
         <v>174962900430</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="22">
         <v>111212097218.25999</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="22">
         <v>215463814084.17001</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="23">
         <v>165715054650</v>
       </c>
     </row>
@@ -1959,16 +1798,16 @@
       <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="22">
         <v>917840020378.38</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="22">
         <v>486041430576.47998</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="22">
         <v>955760448711.26001</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="23">
         <v>828716077459</v>
       </c>
     </row>
@@ -1976,16 +1815,16 @@
       <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="22">
         <v>424150984865.87</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="22">
         <v>348848144284.19</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="22">
         <v>497856404971.25</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="23">
         <v>462868292937</v>
       </c>
     </row>
@@ -1993,16 +1832,16 @@
       <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="22">
         <v>311734632427</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="22">
         <v>215953956342.04999</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="22">
         <v>753263784907</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="23">
         <v>368125864939</v>
       </c>
     </row>
@@ -2010,16 +1849,16 @@
       <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="22">
         <v>279205073631</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="22">
         <v>419322875573</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="22">
         <v>788496702535.40002</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="23">
         <v>476253450194</v>
       </c>
     </row>
@@ -2027,16 +1866,16 @@
       <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="22">
         <v>714427957456.28003</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="22">
         <v>505150070142.67999</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="22">
         <v>877271583552</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="23">
         <v>635159257488</v>
       </c>
     </row>
@@ -2044,16 +1883,16 @@
       <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="22">
         <v>479333147854.98999</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="22">
         <v>235456039044.79001</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="22">
         <v>278534538032</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="23">
         <v>488328771485</v>
       </c>
     </row>
@@ -2061,16 +1900,16 @@
       <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="22">
         <v>585556158553</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="22">
         <v>358077271710</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="22">
         <v>703619487660</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="23">
         <v>860012539712</v>
       </c>
     </row>
@@ -3859,8 +3698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22C80E4-BCEF-4BAD-9E4C-242B7EAABBF8}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E35" sqref="B2:E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3889,510 +3728,510 @@
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="21">
-        <v>69915</v>
-      </c>
-      <c r="D2" s="21">
-        <v>69975</v>
-      </c>
-      <c r="E2" s="21">
-        <v>70005</v>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27">
+        <v>69.915000000000006</v>
+      </c>
+      <c r="D2" s="27">
+        <v>69.974999999999994</v>
+      </c>
+      <c r="E2" s="27">
+        <v>70.004999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="18">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27">
         <v>72</v>
       </c>
-      <c r="D3" s="21">
-        <v>72155</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>62</v>
+      <c r="D3" s="27">
+        <v>72.155000000000001</v>
+      </c>
+      <c r="E3" s="27">
+        <v>72.28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="21">
-        <v>70005</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>61</v>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27">
+        <v>69.89</v>
+      </c>
+      <c r="D4" s="27">
+        <v>70.004999999999995</v>
+      </c>
+      <c r="E4" s="27">
+        <v>70.069999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="21">
-        <v>69205</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>47</v>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27">
+        <v>69.204999999999998</v>
+      </c>
+      <c r="D5" s="27">
+        <v>69.37</v>
+      </c>
+      <c r="E5" s="27">
+        <v>69.47</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="21">
-        <v>74945</v>
-      </c>
-      <c r="D6" s="21">
-        <v>75025</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>58</v>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27">
+        <v>74.944999999999993</v>
+      </c>
+      <c r="D6" s="27">
+        <v>75.025000000000006</v>
+      </c>
+      <c r="E6" s="27">
+        <v>75.08</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>54</v>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27">
+        <v>72.819999999999993</v>
+      </c>
+      <c r="D7" s="27">
+        <v>72.95</v>
+      </c>
+      <c r="E7" s="27">
+        <v>73.06</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="21">
-        <v>67975</v>
-      </c>
-      <c r="D8" s="21">
-        <v>68115</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>80</v>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27">
+        <v>67.974999999999994</v>
+      </c>
+      <c r="D8" s="27">
+        <v>68.114999999999995</v>
+      </c>
+      <c r="E8" s="27">
+        <v>68.239999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>43</v>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27">
+        <v>71.040000000000006</v>
+      </c>
+      <c r="D9" s="27">
+        <v>71.17</v>
+      </c>
+      <c r="E9" s="27">
+        <v>71.260000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>57</v>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27">
+        <v>72.92</v>
+      </c>
+      <c r="D10" s="27">
+        <v>73.150000000000006</v>
+      </c>
+      <c r="E10" s="27">
+        <v>73.38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="21">
-        <v>74245</v>
-      </c>
-      <c r="D11" s="21">
-        <v>74405</v>
-      </c>
-      <c r="E11" s="21">
-        <v>74515</v>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27">
+        <v>74.245000000000005</v>
+      </c>
+      <c r="D11" s="27">
+        <v>74.405000000000001</v>
+      </c>
+      <c r="E11" s="27">
+        <v>74.515000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="21">
-        <v>71225</v>
-      </c>
-      <c r="D12" s="21">
-        <v>71345</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>59</v>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27">
+        <v>71.224999999999994</v>
+      </c>
+      <c r="D12" s="27">
+        <v>71.344999999999999</v>
+      </c>
+      <c r="E12" s="27">
+        <v>71.430000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="21">
-        <v>70735</v>
-      </c>
-      <c r="E13" s="21">
-        <v>70805</v>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27">
+        <v>70.61</v>
+      </c>
+      <c r="D13" s="27">
+        <v>70.734999999999999</v>
+      </c>
+      <c r="E13" s="27">
+        <v>70.805000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>69</v>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27">
+        <v>68.5</v>
+      </c>
+      <c r="D14" s="27">
+        <v>68.69</v>
+      </c>
+      <c r="E14" s="27">
+        <v>68.88</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="21">
-        <v>69695</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="21">
-        <v>69805</v>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27">
+        <v>69.694999999999993</v>
+      </c>
+      <c r="D15" s="27">
+        <v>69.75</v>
+      </c>
+      <c r="E15" s="27">
+        <v>69.805000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="21">
-        <v>74375</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>71</v>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27">
+        <v>74.27</v>
+      </c>
+      <c r="D16" s="27">
+        <v>74.375</v>
+      </c>
+      <c r="E16" s="27">
+        <v>74.650000000000006</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="21">
-        <v>72485</v>
-      </c>
-      <c r="D17" s="21">
-        <v>72535</v>
-      </c>
-      <c r="E17" s="21">
-        <v>72585</v>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27">
+        <v>72.484999999999999</v>
+      </c>
+      <c r="D17" s="27">
+        <v>72.534999999999997</v>
+      </c>
+      <c r="E17" s="27">
+        <v>72.584999999999994</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="21">
-        <v>70545</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>50</v>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27">
+        <v>70.545000000000002</v>
+      </c>
+      <c r="D18" s="27">
+        <v>70.680000000000007</v>
+      </c>
+      <c r="E18" s="27">
+        <v>70.78</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="21">
-        <v>69825</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="21">
-        <v>70155</v>
+      <c r="B19" s="26"/>
+      <c r="C19" s="27">
+        <v>69.825000000000003</v>
+      </c>
+      <c r="D19" s="27">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="E19" s="27">
+        <v>70.155000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="21">
-        <v>70695</v>
-      </c>
-      <c r="E20" s="21">
-        <v>70775</v>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27">
+        <v>70.56</v>
+      </c>
+      <c r="D20" s="27">
+        <v>70.694999999999993</v>
+      </c>
+      <c r="E20" s="27">
+        <v>70.775000000000006</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="21">
-        <v>66025</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>85</v>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27">
+        <v>65.87</v>
+      </c>
+      <c r="D21" s="27">
+        <v>66.025000000000006</v>
+      </c>
+      <c r="E21" s="27">
+        <v>66.14</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="21">
-        <v>68375</v>
-      </c>
-      <c r="E22" s="21">
-        <v>68495</v>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27">
+        <v>68.209999999999994</v>
+      </c>
+      <c r="D22" s="27">
+        <v>68.375</v>
+      </c>
+      <c r="E22" s="27">
+        <v>68.495000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="21">
-        <v>66735</v>
+      <c r="B23" s="26"/>
+      <c r="C23" s="27">
+        <v>66.239999999999995</v>
+      </c>
+      <c r="D23" s="27">
+        <v>66.510000000000005</v>
+      </c>
+      <c r="E23" s="27">
+        <v>66.734999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="21">
-        <v>66895</v>
-      </c>
-      <c r="D24" s="21">
-        <v>67055</v>
-      </c>
-      <c r="E24" s="21">
-        <v>67195</v>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27">
+        <v>66.894999999999996</v>
+      </c>
+      <c r="D24" s="27">
+        <v>67.055000000000007</v>
+      </c>
+      <c r="E24" s="27">
+        <v>67.194999999999993</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="21">
-        <v>65835</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>90</v>
+      <c r="B25" s="26"/>
+      <c r="C25" s="27">
+        <v>65.69</v>
+      </c>
+      <c r="D25" s="27">
+        <v>65.834999999999994</v>
+      </c>
+      <c r="E25" s="27">
+        <v>65.97</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="21">
-        <v>65895</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>88</v>
+      <c r="B26" s="26"/>
+      <c r="C26" s="27">
+        <v>65.894999999999996</v>
+      </c>
+      <c r="D26" s="27">
+        <v>66.05</v>
+      </c>
+      <c r="E26" s="27">
+        <v>66.19</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="21">
-        <v>71525</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>40</v>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27">
+        <v>71.525000000000006</v>
+      </c>
+      <c r="D27" s="27">
+        <v>71.650000000000006</v>
+      </c>
+      <c r="E27" s="27">
+        <v>71.72</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>83</v>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27">
+        <v>64.87</v>
+      </c>
+      <c r="D28" s="27">
+        <v>65.11</v>
+      </c>
+      <c r="E28" s="27">
+        <v>65.290000000000006</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>76</v>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27">
+        <v>70.48</v>
+      </c>
+      <c r="D29" s="27">
+        <v>70.62</v>
+      </c>
+      <c r="E29" s="27">
+        <v>70.709999999999994</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="21">
-        <v>68745</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>69</v>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="D30" s="27">
+        <v>68.745000000000005</v>
+      </c>
+      <c r="E30" s="27">
+        <v>68.88</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>79</v>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27">
+        <v>71.16</v>
+      </c>
+      <c r="D31" s="27">
+        <v>71.34</v>
+      </c>
+      <c r="E31" s="27">
+        <v>71.36</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="21">
-        <v>71745</v>
-      </c>
-      <c r="E32" s="21">
-        <v>71805</v>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27">
+        <v>71.63</v>
+      </c>
+      <c r="D32" s="27">
+        <v>71.745000000000005</v>
+      </c>
+      <c r="E32" s="27">
+        <v>71.805000000000007</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="21">
-        <v>69355</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="21">
-        <v>69635</v>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27">
+        <v>69.355000000000004</v>
+      </c>
+      <c r="D33" s="27">
+        <v>69.52</v>
+      </c>
+      <c r="E33" s="27">
+        <v>69.635000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="21">
-        <v>69705</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>45</v>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27">
+        <v>69.704999999999998</v>
+      </c>
+      <c r="D34" s="27">
+        <v>69.930000000000007</v>
+      </c>
+      <c r="E34" s="27">
+        <v>70.03</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="21">
-        <v>68995</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>37</v>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27">
+        <v>68.995000000000005</v>
+      </c>
+      <c r="D35" s="27">
+        <v>69.150000000000006</v>
+      </c>
+      <c r="E35" s="27">
+        <v>69.28</v>
       </c>
     </row>
   </sheetData>
@@ -4400,6 +4239,7 @@
     <sortCondition ref="A2:A35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4445,59 +4285,59 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="21">
         <v>155910977000000</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="21">
         <v>164162978200000</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="21">
         <v>166372320700000</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="21">
         <v>184976301600000</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="21">
         <v>4.87826762E+18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="22">
+        <v>36</v>
+      </c>
+      <c r="B3" s="21">
         <v>741347427600000</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <v>799608954200000</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>811188308800000</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <v>859870945400000</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <v>2.6190895070000001E+19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="22">
+        <v>37</v>
+      </c>
+      <c r="B4" s="21">
         <v>230367222000000</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>245949737200000</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>241993529100000</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <v>252749645400000</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>9.652282950000001E+18</v>
       </c>
     </row>
@@ -4505,19 +4345,19 @@
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>752263066300000</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>760247508900000</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>728649985300000</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>843211153000000</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>1.37943228E+19</v>
       </c>
     </row>
@@ -4525,39 +4365,39 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>207878694300000</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>216927708200000</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>206242611000000</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>233725458600000</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>9.95507958E+18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="22">
+        <v>38</v>
+      </c>
+      <c r="B7" s="21">
         <v>419392156700000</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>453402714100000</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>456647864400000</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <v>491566450400000</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <v>1.8469274070000001E+19</v>
       </c>
     </row>
@@ -4565,19 +4405,19 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="21">
         <v>66402993050000</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>72098240450000</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>73305267040000</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="21">
         <v>79576326260000</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>2.98225841E+18</v>
       </c>
     </row>
@@ -4585,19 +4425,19 @@
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>332446070700000</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>356676828400000</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>353530038800000</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <v>371903171900000</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <v>1.307624346E+19</v>
       </c>
     </row>
@@ -4605,19 +4445,19 @@
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="21">
         <v>73113281660000</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <v>75794959500000</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>75495257200000</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <v>85942704030000</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <v>2.05642572E+18</v>
       </c>
     </row>
@@ -4625,19 +4465,19 @@
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="21">
         <v>248822233100000</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <v>267631477900000</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>254227859800000</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="21">
         <v>275636327700000</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="21">
         <v>9.227391310000001E+18</v>
       </c>
     </row>
@@ -4645,19 +4485,19 @@
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="21">
         <v>2592606572000000</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>2815636157000000</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>2768189733000000</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <v>2914581083000000</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="21">
         <v>6.7860694379999994E+19</v>
       </c>
     </row>
@@ -4665,19 +4505,19 @@
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="21">
         <v>1960627652000000</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <v>2123153711000000</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>2084620246000000</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="21">
         <v>2209822384000000</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="21">
         <v>6.4857816099999998E+19</v>
       </c>
     </row>
@@ -4685,19 +4525,19 @@
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="21">
         <v>1268261166000000</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <v>1360960131000000</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>1347922689000000</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="21">
         <v>1420799908000000</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="21">
         <v>5.6462907049999999E+19</v>
       </c>
     </row>
@@ -4705,19 +4545,19 @@
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>129818357900000</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>141047688000000</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>138306833300000.02</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="21">
         <v>149369169100000</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="21">
         <v>8.91936631E+18</v>
       </c>
     </row>
@@ -4725,19 +4565,19 @@
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>2188766345000000</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <v>2345548552000000</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>2299791052000000</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="21">
         <v>2454498796000000</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="21">
         <v>8.8895105869999997E+19</v>
       </c>
     </row>
@@ -4745,19 +4585,19 @@
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>613804414400000</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="21">
         <v>661321340800000</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <v>625979345100000</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="21">
         <v>665921915500000</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="21">
         <v>2.2816364089999999E+19</v>
       </c>
     </row>
@@ -4765,19 +4605,19 @@
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>233636772700000</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <v>251934097800000</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>223900894600000</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="21">
         <v>219800030500000</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="21">
         <v>7.3588578E+18</v>
       </c>
     </row>
@@ -4785,19 +4625,19 @@
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <v>123868015400000</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="21">
         <v>132500099800000</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <v>133613744200000</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="21">
         <v>140153319100000</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="21">
         <v>7.15486138E+18</v>
       </c>
     </row>
@@ -4805,19 +4645,19 @@
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="21">
         <v>98930187650000</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="21">
         <v>106731763300000</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>106480968000000</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="21">
         <v>110885751000000</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="21">
         <v>4.83456507E+18</v>
       </c>
     </row>
@@ -4825,19 +4665,19 @@
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>194138220800000</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="21">
         <v>212150332200000</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <v>214001753700000</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="21">
         <v>231321163300000</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="21">
         <v>4.51572532E+18</v>
       </c>
     </row>
@@ -4845,19 +4685,19 @@
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>138616134699999.98</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="21">
         <v>150046095600000</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <v>152187394300000</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="21">
         <v>170001210900000</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="21">
         <v>2.60448084E+18</v>
       </c>
     </row>
@@ -4865,19 +4705,19 @@
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="21">
         <v>171684055900000</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <v>180557639200000</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>179094106600000</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="21">
         <v>192576581200000</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="21">
         <v>4.55702656E+18</v>
       </c>
     </row>
@@ -4885,19 +4725,19 @@
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="21">
         <v>635498679800000</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="21">
         <v>652480257400000</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="21">
         <v>607586183100000</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="21">
         <v>695158330300000</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="21">
         <v>8.33090052E+18</v>
       </c>
     </row>
@@ -4905,19 +4745,19 @@
       <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="21">
         <v>85548942680000</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="21">
         <v>96509929570000</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>100509859600000</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="21">
         <v>110668941600000</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="21">
         <v>8.2000132E+17</v>
       </c>
     </row>
@@ -4925,19 +4765,19 @@
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="21">
         <v>119512684000000</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="21">
         <v>130126510000000</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>132230056900000</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="21">
         <v>142600019600000</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="21">
         <v>3.82056688E+18</v>
       </c>
     </row>
@@ -4945,19 +4785,19 @@
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="21">
         <v>167135768800000</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="21">
         <v>185740087200000</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>197440782700000</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="21">
         <v>246987356700000</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="21">
         <v>5.39811733E+18</v>
       </c>
     </row>
@@ -4965,19 +4805,19 @@
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="21">
         <v>461774735800000</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="21">
         <v>504320725100000</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <v>504059368400000</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="21">
         <v>545230029100000</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="21">
         <v>2.2828847849999999E+19</v>
       </c>
     </row>
@@ -4985,19 +4825,19 @@
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="21">
         <v>118066606700000</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="21">
         <v>129225147500000</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="21">
         <v>130178026100000</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="21">
         <v>139057828199999.98</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="21">
         <v>4.48051651E+18</v>
       </c>
     </row>
@@ -5005,19 +4845,19 @@
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="21">
         <v>37731386370000</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="21">
         <v>41145449910000</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <v>41729772040000</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="21">
         <v>43896365580000</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="21">
         <v>1.70567309E+18</v>
       </c>
     </row>
@@ -5025,19 +4865,19 @@
       <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="21">
         <v>43457831660000</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="21">
         <v>46365789570000</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="21">
         <v>46427581980000</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="21">
         <v>50341228800000</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="21">
         <v>1.20229283E+18</v>
       </c>
     </row>
@@ -5045,19 +4885,19 @@
       <c r="A32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="21">
         <v>43047090660000</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="21">
         <v>46152817520000</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="21">
         <v>46262452530000</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="21">
         <v>48564217180000</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="21">
         <v>2.86004811E+18</v>
       </c>
     </row>
@@ -5065,19 +4905,19 @@
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="21">
         <v>36468794700000</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="21">
         <v>39695490690000</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="21">
         <v>42319470430000</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="21">
         <v>52359851790000</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="21">
         <v>1.35296458E+18</v>
       </c>
     </row>
@@ -5085,19 +4925,19 @@
       <c r="A34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="21">
         <v>79644584970000</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="21">
         <v>84356967990000</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="21">
         <v>83588641760000</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="21">
         <v>85072858480000</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="21">
         <v>1.12884324E+18</v>
       </c>
     </row>
@@ -5105,19 +4945,19 @@
       <c r="A35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="21">
         <v>210600573200000</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="21">
         <v>189510696100000</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="21">
         <v>199232884400000</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="21">
         <v>235343249900000</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="21">
         <v>3.37921367E+18</v>
       </c>
     </row>
@@ -5130,7 +4970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E77AFB4-C3E1-4CBE-87D7-DD98FDFCF5A3}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -5168,59 +5008,59 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="21">
         <v>4878267620000</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="21">
         <v>5148188390000</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="21">
         <v>5393983140000</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="21">
         <v>5705376600000</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="21">
         <v>6246082490000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="22">
+        <v>36</v>
+      </c>
+      <c r="B3" s="21">
         <v>26190895070000</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <v>28611300440000</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>31055571700000</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <v>31722155700000</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <v>32326513560000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="22">
+        <v>37</v>
+      </c>
+      <c r="B4" s="21">
         <v>9652282950000</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>10343941880000</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>11224945440000</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <v>11954727400000</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="21">
         <v>12685315150000</v>
       </c>
     </row>
@@ -5228,19 +5068,19 @@
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>13794322800000</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <v>14502440230000</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>15542767970000</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>17220666040000</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>18427086620000</v>
       </c>
     </row>
@@ -5248,39 +5088,39 @@
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>9955079580000</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>10850447130000</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>12178570250000</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>12757096870000</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>13344116480000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="22">
+        <v>38</v>
+      </c>
+      <c r="B7" s="21">
         <v>18469274070000</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>19617828090000</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="21">
         <v>20833952610000</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <v>21712107570000</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <v>22763560290000</v>
       </c>
     </row>
@@ -5288,19 +5128,19 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="21">
         <v>2982258410000</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>3211972370000</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>3444414860000</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="21">
         <v>3665386270000</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>4020482040000</v>
       </c>
     </row>
@@ -5308,19 +5148,19 @@
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>13076243460000</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>14105299350000</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>15244659750000</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <v>16224834180000</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <v>16898904790000</v>
       </c>
     </row>
@@ -5328,19 +5168,19 @@
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="21">
         <v>2056425720000</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <v>2233794160000</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>2382896350000</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <v>2453365460000</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <v>2545480740000</v>
       </c>
     </row>
@@ -5348,19 +5188,19 @@
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="21">
         <v>9227391310000</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <v>9966028960000</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>10726082040000</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="21">
         <v>10916298710000</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="21">
         <v>11347303010000</v>
       </c>
     </row>
@@ -5368,19 +5208,19 @@
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="21">
         <v>67860694379999.992</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>72633743080000</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>77658829150000</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <v>86763125590000</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="21">
         <v>89597233010000</v>
       </c>
     </row>
@@ -5388,19 +5228,19 @@
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="21">
         <v>64857816100000</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <v>70117779010000.008</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>77629726710000</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="21">
         <v>81479894360000</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="21">
         <v>85359925310000</v>
       </c>
     </row>
@@ -5408,19 +5248,19 @@
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="21">
         <v>56462907050000</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <v>61904921440000</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>66902113620000</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="21">
         <v>67872762410000</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="21">
         <v>70125378849999.992</v>
       </c>
     </row>
@@ -5428,19 +5268,19 @@
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>8919366310000</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>9455465250000</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>10222484090000</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="21">
         <v>10657780830000</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="21">
         <v>11538530880000</v>
       </c>
     </row>
@@ -5448,19 +5288,19 @@
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>88895105870000</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <v>96193852810000</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>102575288700000</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="21">
         <v>110725095200000</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="21">
         <v>113377414700000</v>
       </c>
     </row>
@@ -5468,19 +5308,19 @@
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>22816364090000</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="21">
         <v>24750837560000</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <v>26364887900000</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="21">
         <v>26812702520000</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="21">
         <v>27514859950000</v>
       </c>
     </row>
@@ -5488,19 +5328,19 @@
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>7358857800000</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <v>7864049190000</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>8571444830000</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="21">
         <v>9358858090000</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="21">
         <v>9651050890000</v>
       </c>
     </row>
@@ -5508,19 +5348,19 @@
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <v>7154861380000</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="21">
         <v>7656801050000</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <v>8234065430000</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="21">
         <v>8398867590000</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="21">
         <v>8872847280000</v>
       </c>
     </row>
@@ -5528,19 +5368,19 @@
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="21">
         <v>4834565070000</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="21">
         <v>5158447200000</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <v>5596783130000</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="21">
         <v>6041480200000</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="21">
         <v>6092514070000</v>
       </c>
     </row>
@@ -5548,19 +5388,19 @@
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>4515725320000</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="21">
         <v>4837254280000</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <v>5340554850000</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="21">
         <v>5367827450000</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="21">
         <v>5740658950000</v>
       </c>
     </row>
@@ -5568,19 +5408,19 @@
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>2604480840000</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="21">
         <v>2828341960000</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <v>3154662710000</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="21">
         <v>3424540040000</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="21">
         <v>3797268490000</v>
       </c>
     </row>
@@ -5588,19 +5428,19 @@
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="21">
         <v>4557026560000</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <v>4822691080000</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="21">
         <v>5168156860000</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="21">
         <v>5563973160000</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="21">
         <v>5949584730000</v>
       </c>
     </row>
@@ -5608,19 +5448,19 @@
       <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="21">
         <v>8330900520000</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="21">
         <v>8618577810000.001</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="21">
         <v>9185286420000</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="21">
         <v>9710471390000</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="21">
         <v>10410440490000</v>
       </c>
     </row>
@@ -5628,19 +5468,19 @@
       <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="21">
         <v>820001320000</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="21">
         <v>856208340000</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>928880390000</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="21">
         <v>990011320000</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="21">
         <v>1052524480000</v>
       </c>
     </row>
@@ -5648,19 +5488,19 @@
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="21">
         <v>3820566880000</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="21">
         <v>4093028940000</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>4646369950000</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="21">
         <v>4886283310000</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="21">
         <v>5437100330000</v>
       </c>
     </row>
@@ -5668,19 +5508,19 @@
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="21">
         <v>5398117330000</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="21">
         <v>6041120360000</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>6696541270000</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="21">
         <v>6782821690000</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="21">
         <v>7159336750000</v>
       </c>
     </row>
@@ -5688,19 +5528,19 @@
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="21">
         <v>22828847850000</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="21">
         <v>26446640470000</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <v>28775905000000</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="21">
         <v>33424479830000</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="21">
         <v>35436181830000</v>
       </c>
     </row>
@@ -5708,19 +5548,19 @@
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="21">
         <v>4480516510000</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="21">
         <v>4774189600000</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="21">
         <v>5181178150000</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="21">
         <v>5470032270000</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="21">
         <v>5760812520000</v>
       </c>
     </row>
@@ -5728,19 +5568,19 @@
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="21">
         <v>1705673090000</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="21">
         <v>1923480940000</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <v>2166293430000.0002</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="21">
         <v>2238517420000</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="21">
         <v>2357576300000</v>
       </c>
     </row>
@@ -5748,19 +5588,19 @@
       <c r="A31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="21">
         <v>1202292830000</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="21">
         <v>1383071490000</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="21">
         <v>1501495650000</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="21">
         <v>1552543090000</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="21">
         <v>1616154590000</v>
       </c>
     </row>
@@ -5768,19 +5608,19 @@
       <c r="A32" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="21">
         <v>2860048110000</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="21">
         <v>2981637870000</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="21">
         <v>3287665670000</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="21">
         <v>3617232370000</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F32" s="21">
         <v>3598499470000</v>
       </c>
     </row>
@@ -5788,19 +5628,19 @@
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="21">
         <v>1352964580000</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="21">
         <v>1448316990000</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="21">
         <v>1574874760000</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="21">
         <v>1624366690000</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F33" s="21">
         <v>1744270020000</v>
       </c>
     </row>
@@ -5808,19 +5648,19 @@
       <c r="A34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="21">
         <v>1128843240000</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="21">
         <v>1249207780000</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="21">
         <v>1298065710000</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="21">
         <v>1497754240000</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="21">
         <v>1709913700000</v>
       </c>
     </row>
@@ -5828,19 +5668,19 @@
       <c r="A35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="21">
         <v>3379213670000</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="21">
         <v>3639820860000</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="21">
         <v>3963908180000</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="21">
         <v>4283597389999.9995</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="21">
         <v>5160321840000</v>
       </c>
     </row>

--- a/dataset/data_true.xlsx
+++ b/dataset/data_true.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nanda\Documents\Erwin\My Working\Code Programming\GitHub\fhas\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D962F28D-7C1B-445E-BD67-D59DF3876D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DAD246-2B9B-4FA4-A2E8-12FA7D13EB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="10577" tabRatio="668" firstSheet="2" activeTab="5" xr2:uid="{6C15B5C4-D9F3-404C-842A-C8791802B2E5}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="10577" tabRatio="668" firstSheet="2" activeTab="6" xr2:uid="{6C15B5C4-D9F3-404C-842A-C8791802B2E5}"/>
   </bookViews>
   <sheets>
     <sheet name="APBD" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -367,8 +367,8 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -3698,7 +3698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22C80E4-BCEF-4BAD-9E4C-242B7EAABBF8}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -4247,8 +4247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E326179C-5873-450E-8F0C-6E7C55BEEE0E}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4298,7 +4298,7 @@
         <v>184976301600000</v>
       </c>
       <c r="F2" s="21">
-        <v>4.87826762E+18</v>
+        <v>487826762000000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -4318,7 +4318,7 @@
         <v>859870945400000</v>
       </c>
       <c r="F3" s="21">
-        <v>2.6190895070000001E+19</v>
+        <v>2619089507000000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -4338,7 +4338,7 @@
         <v>252749645400000</v>
       </c>
       <c r="F4" s="21">
-        <v>9.652282950000001E+18</v>
+        <v>965228295000000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -4358,7 +4358,7 @@
         <v>843211153000000</v>
       </c>
       <c r="F5" s="21">
-        <v>1.37943228E+19</v>
+        <v>1379432280000000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -4378,7 +4378,7 @@
         <v>233725458600000</v>
       </c>
       <c r="F6" s="21">
-        <v>9.95507958E+18</v>
+        <v>995507958000000</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -4398,7 +4398,7 @@
         <v>491566450400000</v>
       </c>
       <c r="F7" s="21">
-        <v>1.8469274070000001E+19</v>
+        <v>1846927407000000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -4418,7 +4418,7 @@
         <v>79576326260000</v>
       </c>
       <c r="F8" s="21">
-        <v>2.98225841E+18</v>
+        <v>298225841000000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -4438,7 +4438,7 @@
         <v>371903171900000</v>
       </c>
       <c r="F9" s="21">
-        <v>1.307624346E+19</v>
+        <v>1307624346000000</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -4458,7 +4458,7 @@
         <v>85942704030000</v>
       </c>
       <c r="F10" s="21">
-        <v>2.05642572E+18</v>
+        <v>205642572000000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -4478,7 +4478,7 @@
         <v>275636327700000</v>
       </c>
       <c r="F11" s="21">
-        <v>9.227391310000001E+18</v>
+        <v>922739131000000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -4498,7 +4498,7 @@
         <v>2914581083000000</v>
       </c>
       <c r="F12" s="21">
-        <v>6.7860694379999994E+19</v>
+        <v>6786069438000000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -4518,7 +4518,7 @@
         <v>2209822384000000</v>
       </c>
       <c r="F13" s="21">
-        <v>6.4857816099999998E+19</v>
+        <v>6485781610000000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -4538,7 +4538,7 @@
         <v>1420799908000000</v>
       </c>
       <c r="F14" s="21">
-        <v>5.6462907049999999E+19</v>
+        <v>5646290705000000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -4558,7 +4558,7 @@
         <v>149369169100000</v>
       </c>
       <c r="F15" s="21">
-        <v>8.91936631E+18</v>
+        <v>891936631000000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -4578,7 +4578,7 @@
         <v>2454498796000000</v>
       </c>
       <c r="F16" s="21">
-        <v>8.8895105869999997E+19</v>
+        <v>8889510587000000</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -4598,7 +4598,7 @@
         <v>665921915500000</v>
       </c>
       <c r="F17" s="21">
-        <v>2.2816364089999999E+19</v>
+        <v>2281636409000000</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -4618,7 +4618,7 @@
         <v>219800030500000</v>
       </c>
       <c r="F18" s="21">
-        <v>7.3588578E+18</v>
+        <v>735885780000000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -4638,7 +4638,7 @@
         <v>140153319100000</v>
       </c>
       <c r="F19" s="21">
-        <v>7.15486138E+18</v>
+        <v>715486138000000</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -4658,7 +4658,7 @@
         <v>110885751000000</v>
       </c>
       <c r="F20" s="21">
-        <v>4.83456507E+18</v>
+        <v>483456507000000</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -4678,7 +4678,7 @@
         <v>231321163300000</v>
       </c>
       <c r="F21" s="21">
-        <v>4.51572532E+18</v>
+        <v>451572532000000</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -4698,7 +4698,7 @@
         <v>170001210900000</v>
       </c>
       <c r="F22" s="21">
-        <v>2.60448084E+18</v>
+        <v>260448084000000</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -4718,7 +4718,7 @@
         <v>192576581200000</v>
       </c>
       <c r="F23" s="21">
-        <v>4.55702656E+18</v>
+        <v>455702656000000</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
@@ -4738,7 +4738,7 @@
         <v>695158330300000</v>
       </c>
       <c r="F24" s="21">
-        <v>8.33090052E+18</v>
+        <v>833090052000000</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -4758,7 +4758,7 @@
         <v>110668941600000</v>
       </c>
       <c r="F25" s="21">
-        <v>8.2000132E+17</v>
+        <v>82000132000000</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -4778,7 +4778,7 @@
         <v>142600019600000</v>
       </c>
       <c r="F26" s="21">
-        <v>3.82056688E+18</v>
+        <v>382056688000000</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -4798,7 +4798,7 @@
         <v>246987356700000</v>
       </c>
       <c r="F27" s="21">
-        <v>5.39811733E+18</v>
+        <v>539811733000000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -4818,7 +4818,7 @@
         <v>545230029100000</v>
       </c>
       <c r="F28" s="21">
-        <v>2.2828847849999999E+19</v>
+        <v>228288478500000</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -4838,7 +4838,7 @@
         <v>139057828199999.98</v>
       </c>
       <c r="F29" s="21">
-        <v>4.48051651E+18</v>
+        <v>448051651000000</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
@@ -4858,7 +4858,7 @@
         <v>43896365580000</v>
       </c>
       <c r="F30" s="21">
-        <v>1.70567309E+18</v>
+        <v>170567309000000</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
@@ -4878,7 +4878,7 @@
         <v>50341228800000</v>
       </c>
       <c r="F31" s="21">
-        <v>1.20229283E+18</v>
+        <v>120229283000000</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -4898,7 +4898,7 @@
         <v>48564217180000</v>
       </c>
       <c r="F32" s="21">
-        <v>2.86004811E+18</v>
+        <v>286004811000000</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
@@ -4918,7 +4918,7 @@
         <v>52359851790000</v>
       </c>
       <c r="F33" s="21">
-        <v>1.35296458E+18</v>
+        <v>135296458000000</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -4938,7 +4938,7 @@
         <v>85072858480000</v>
       </c>
       <c r="F34" s="21">
-        <v>1.12884324E+18</v>
+        <v>112884324000000</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
@@ -4958,7 +4958,7 @@
         <v>235343249900000</v>
       </c>
       <c r="F35" s="21">
-        <v>3.37921367E+18</v>
+        <v>337921367000000</v>
       </c>
     </row>
   </sheetData>
